--- a/biology/Médecine/René_Semelaigne/René_Semelaigne.xlsx
+++ b/biology/Médecine/René_Semelaigne/René_Semelaigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Semelaigne</t>
+          <t>René_Semelaigne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Semelaigne est un psychiatre français, né le 12 décembre 1855 à Neuilly-sur-Seine et mort le 16 novembre 1934.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Semelaigne</t>
+          <t>René_Semelaigne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">René Semelaigne est un psychiatre et biographe français né à Neuilly-sur-Seine. Il était le fils du psychiatre Armand Semelaigne (1820–1898) et un arrière-petit-neveu du psychiatre Philippe Pinel (1745-1826).
-Il a été interne des hôpitaux de Paris puis président de la Société médico-psychologique, de la Société clinique de médecine mentale, de la Société de psychiatrie et du Congrès des médecins aliénistes et neurologistes[1].
-Comme psychiatre, il a été le directeur de la Maison de santé de la Folie Saint-James à Neuilly-sur-Seine[2]. Il est connu pour ses études historiques sur la psychiatrie, étant en particulier l'auteur de trois ouvrages importants sur le sujet.
+Il a été interne des hôpitaux de Paris puis président de la Société médico-psychologique, de la Société clinique de médecine mentale, de la Société de psychiatrie et du Congrès des médecins aliénistes et neurologistes.
+Comme psychiatre, il a été le directeur de la Maison de santé de la Folie Saint-James à Neuilly-sur-Seine. Il est connu pour ses études historiques sur la psychiatrie, étant en particulier l'auteur de trois ouvrages importants sur le sujet.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Semelaigne</t>
+          <t>René_Semelaigne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Études historiques sur l'aliénation mentale dans l'Antiquité, Paris, P. Asselin, 1869.
 Du sommeil pathologique chez les aliénés, Paris, 1885.
@@ -552,12 +568,12 @@
 Philippe Pinel et son œuvre au point de vue de la médecine mentale, 1888.
 Du restraint et du non-restraint en Angleterre, 1890.
 De la Législation sur les aliénés dans les Îles Britanniques, 1892.
-Les grands aliénistes français, 1894. - Biographies de Philippe Pinel, Jean-Étienne Esquirol, Guillaume Ferrus, Jean-Pierre Falret, Félix Voisin et Étienne-Jean Georget[3].
+Les grands aliénistes français, 1894. - Biographies de Philippe Pinel, Jean-Étienne Esquirol, Guillaume Ferrus, Jean-Pierre Falret, Félix Voisin et Étienne-Jean Georget.
 Aliénistes et philanthropes: les Pinel et les Tuke, 1912.
 Divorce et aliénation mentale, Paris, Jouve, 1919.
 Philippe Pinel (1745-1826), 1927.
 Physionomie des aliénés, 1930.
-Les pionniers de la psychiatrie française avant et après Pinel - Volume 1, Paris, JB Bailliere, 1930 et Volume 2, 1932[4].
+Les pionniers de la psychiatrie française avant et après Pinel - Volume 1, Paris, JB Bailliere, 1930 et Volume 2, 1932.
 Philippe Pinel et son œuvre, 2001.</t>
         </is>
       </c>
